--- a/biology/Zoologie/Amphidromus/Amphidromus.xlsx
+++ b/biology/Zoologie/Amphidromus/Amphidromus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphidromus est un genre d'escargots terrestres tropicaux à respiration aérienne de la famille des Camaenidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les coquilles des espèces de ce genre sont relativement grandes, de 25 à 75 mm de dimension maximale, et particulièrement colorées.
 Ce genre est inhabituel en ce qu'il comprend des espèces à enroulement dextre et des espèces à enroulement senestre. De plus, certaines espèces sont particulièrement remarquables par leurs populations comprenant simultanément des individus à coquille enroulée à gauche et enroulée à droite. C'est un phénomène extrêmement rare, et très intéressant pour les biologistes. Les études portant sur l'anatomie des parties molles de ces espèces sont éparses et fragmentaires. Les informations sur l'anatomie interne ne sont connues que de quelques espèces, et aucune étude morphologique comparative plus importante n'a jamais été réalisée.
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XVIIIe siècle, ils ont été parmi les premiers escargots terrestres indonésiens apportés en Europe par les voyageurs et les explorateurs. Depuis lors, le genre a été largement étudié : plusieurs monographies et catalogues complets ont été rédigés par des naturalistes et des zoologistes au cours de la période allant du début du XIXe au milieu du XXe siècle. Les études modernes se sont concentrées sur une meilleure compréhension des relations évolutives au sein du groupe, ainsi que sur la résolution de problèmes taxonomiques.
 </t>
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (10 juin 2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (10 juin 2023) :
 Amphidromus abbasi S.Y.Chan &amp; S.K.Tan, 2010
 Amphidromus abbasorum Thach, 2017
 Amphidromus abbotthuberorum Thach, 2017
@@ -919,10 +937,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Amphidromus Albers, 1850[1].
-Amphidromus a pour synonymes[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Amphidromus Albers, 1850.
+Amphidromus a pour synonymes :
 Amphidomus Dickerson, 1928
 Amphidronus Albers, 1850
 Goniodromus Bülow, 1905
@@ -954,7 +974,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom est composé du préfixe amphi-, « des deux côtés », et du suffixe -dromos, courir, en raison de l'enroulement des coquilles de ces mollusques qui peut être aussi bien dextre que senestre.
 </t>
